--- a/data/Sistema_de_Notificacion_de_Muertes_Violentas/svmvIncidentes_1.xlsx
+++ b/data/Sistema_de_Notificacion_de_Muertes_Violentas/svmvIncidentes_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Sistema_de_Notificacion_de_Muertes_Violentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D100FBF9-6D5B-4478-959A-6F1E3593EA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D469A8-A514-4FC1-B83D-F7B274420B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9CFC54A2-FB65-C045-ACC9-D5EBAFBDCE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +56,7 @@
     <t>Homicidio seguido de suicidio</t>
   </si>
   <si>
-    <t>Homicidio(s) seguido de suicidio(s), (más  de dos víctimas)</t>
+    <t>Homicidio(s) seguido de suicidio(s), (+ dos víctimas)</t>
   </si>
   <si>
     <t>Muerte no determinada</t>
@@ -73,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,8 +85,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,245 +432,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1B44BE-364E-EC48-9E9B-83F94D0251FB}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="53.3984375" customWidth="1"/>
+    <col min="1" max="1" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2020</v>
       </c>
       <c r="F1" s="1">
         <v>2021</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>51</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>37</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>46</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>29</v>
       </c>
       <c r="G2" s="1">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>29</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>28</v>
       </c>
       <c r="G3" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H10" si="0">SUM(B3:G3)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>89</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>97</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>92</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>81</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>69</v>
       </c>
-      <c r="G9" s="1">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SUM(B9:G9)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <f>SUM(B2:B8)</f>
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <f>SUM(C2:C8)</f>
         <v>97</v>
       </c>
-      <c r="D10">
-        <v>94</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <f t="shared" ref="C10:G10" si="1">SUM(D2:D8)</f>
+        <v>92</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F10" s="1">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1">
-        <v>434</v>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
